--- a/Hardware/CAD/Lickometer_BOM.xlsx
+++ b/Hardware/CAD/Lickometer_BOM.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artur\Documents\GitHub\optical-lickometer\Hardware\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E018C26E-8560-49E9-99C0-FAC49C0C3BF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A59EBD-5245-406F-9D09-B7F0C329BA8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main box" sheetId="1" r:id="rId1"/>
+    <sheet name="lickometer" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -535,7 +535,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -615,11 +615,11 @@
         <v>30</v>
       </c>
       <c r="G2" s="7">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" ref="H2:H14" si="0">C2*G2</f>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -917,11 +917,12 @@
         <v>22</v>
       </c>
       <c r="G9" s="13">
-        <v>20.239999999999998</v>
+        <f>67.02/100</f>
+        <v>0.67019999999999991</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>20.239999999999998</v>
+        <v>0.67019999999999991</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1199,7 +1200,7 @@
       </c>
       <c r="H16" s="20">
         <f>SUM(H2:H14)</f>
-        <v>66.612499999999983</v>
+        <v>39.542699999999996</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>

--- a/Hardware/CAD/Lickometer_BOM.xlsx
+++ b/Hardware/CAD/Lickometer_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artur\Documents\GitHub\optical-lickometer\Hardware\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A59EBD-5245-406F-9D09-B7F0C329BA8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75219AF-075A-4950-924E-3C64FEA74E30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>837-262</t>
-  </si>
-  <si>
-    <t>376-4599</t>
   </si>
   <si>
     <t>Digikey</t>
@@ -153,6 +150,9 @@
   <si>
     <t>3D printed 7 parts - same batch possible - all same grey color or white</t>
   </si>
+  <si>
+    <t>293-319</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,28 +188,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -240,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,7 +264,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -303,14 +291,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -535,7 +523,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -599,20 +587,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="28" t="s">
-        <v>32</v>
+      <c r="B2" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>31</v>
+      <c r="D2" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>30</v>
+      <c r="F2" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="G2" s="7">
         <v>2.5</v>
@@ -641,15 +629,15 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23">
-        <v>13</v>
+      <c r="C3" s="22">
+        <v>9</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>33</v>
+      <c r="D3" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
@@ -663,7 +651,7 @@
       </c>
       <c r="H3" s="7">
         <f t="shared" si="0"/>
-        <v>1.2441</v>
+        <v>0.86130000000000007</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -685,15 +673,15 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>8</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>36</v>
+      <c r="D4" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>12</v>
@@ -728,20 +716,20 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>4</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>34</v>
+      <c r="D5" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="13">
@@ -771,15 +759,15 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>11</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>35</v>
+      <c r="D6" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>9</v>
@@ -814,21 +802,21 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>2</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>37</v>
+      <c r="D7" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G7" s="13">
         <v>0.2727</v>
@@ -857,21 +845,21 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>2</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>39</v>
+      <c r="D8" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="13">
         <v>0.69</v>
@@ -900,21 +888,21 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>1</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="G9" s="13">
         <f>67.02/100</f>
@@ -944,21 +932,21 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>2</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>40</v>
+      <c r="D10" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="13">
         <v>0.112</v>
@@ -987,21 +975,21 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>2</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>41</v>
+      <c r="D11" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="13">
         <v>0.13</v>
@@ -1030,21 +1018,21 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>1</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>42</v>
+      <c r="D12" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="13">
         <v>1.0999999999999999E-2</v>
@@ -1073,21 +1061,21 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>1</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>43</v>
+      <c r="D13" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>30</v>
+      <c r="F13" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="G13" s="13">
         <v>20</v>
@@ -1123,14 +1111,14 @@
       <c r="C14" s="9">
         <v>1</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>38</v>
+      <c r="D14" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>30</v>
+      <c r="F14" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="G14" s="13">
         <v>10</v>
@@ -1139,7 +1127,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I14" s="16"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1160,15 +1148,15 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="17" t="s">
-        <v>28</v>
+      <c r="B15" s="16" t="s">
+        <v>27</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1196,11 +1184,11 @@
       <c r="E16" s="6"/>
       <c r="F16" s="4"/>
       <c r="G16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f>SUM(H2:H14)</f>
-        <v>39.542699999999996</v>
+        <v>39.1599</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1257,7 +1245,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="4"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1313,7 +1301,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="20"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
